--- a/기말과제_킹데베/erica_data.xlsx
+++ b/기말과제_킹데베/erica_data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\전규리\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\전규리\Desktop\RURU\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>인하대</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>약국 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>병원 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>홍익대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,18 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주말 유동인구 수</t>
-  </si>
-  <si>
-    <t>평일 유동인구 수</t>
-  </si>
-  <si>
-    <t>250,000㎡</t>
-  </si>
-  <si>
-    <t>204,282㎡</t>
-  </si>
-  <si>
     <t>210,741㎡</t>
   </si>
   <si>
@@ -119,11 +99,126 @@
     <t>231,303㎡</t>
   </si>
   <si>
-    <t>20대 인당 평균 2017 하반기 월 소비액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직장인 인당 평균 2017 하반기 월 소비액</t>
+    <t>가천대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청주대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기대 수원캠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,015명</t>
+  </si>
+  <si>
+    <t>227,600㎡</t>
+  </si>
+  <si>
+    <t>25,584명</t>
+  </si>
+  <si>
+    <t>274,845㎡</t>
+  </si>
+  <si>
+    <t>17,460명</t>
+  </si>
+  <si>
+    <t>266,170㎡</t>
+  </si>
+  <si>
+    <t>19,678명</t>
+  </si>
+  <si>
+    <t>200,279㎡</t>
+  </si>
+  <si>
+    <t>191,665㎡</t>
+  </si>
+  <si>
+    <t>272,224㎡</t>
+  </si>
+  <si>
+    <t>유동인구 수 ㈜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017년09월(패스트푸드평균매출액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017년10월(패스트푸드평균매출액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017년11월(패스트푸드평균매출액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017년12월(패스트푸드평균매출액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년1월(패스트푸드평균매출액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018년2월(패스트푸드평균매출액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국 및 병원 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스트푸드점 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥도날드, 서브웨이, 피자와버거, KFC, 버거킹</t>
+  </si>
+  <si>
+    <t>넛츠, 맘스터치, 민S돈버거, 버거크루,  롯데리아</t>
+  </si>
+  <si>
+    <t>패자앤에일, 피자스쿨, 도트피자, 곤드라피자, NPS피자, MR.피자, 7번가피자, 아이리시포테이토, 아벡데프리츠, 맥도날드</t>
+  </si>
+  <si>
+    <t>213버거, 도스마스, 밀플랜비, 써브웨이안산한양대점, 봉구스밥버거</t>
+  </si>
+  <si>
+    <t>롯데리아경기대역점, 써브웨이광교, 퀴즈노스, 쏘자경기대점</t>
+  </si>
+  <si>
+    <t>뚱스밥버거, 피자나라치킨나라, 멜팅그릴</t>
+  </si>
+  <si>
+    <t>맘스터치청주우암점, 봉구스밥버거청주대점, 비비고컵밥버거, 킹스햄버거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1905자이언트몬스터피자앤드, 더큰밥버거, 롯데리아, 슈퍼치즈</t>
+  </si>
+  <si>
+    <t>명랑핫도그, 청춘 핫도그, 로맨틱그린, 델리, 32파르페, 피자헛, 몬스터피자, 더피자보이즈, 갱스터피자, 7번가피자, 크로와콘, KFC, 와플몬스터, 오공일파스타, 버거킹, 버거4.5, 맥도날드, 롯데리아, 세이치즈 토스트</t>
+  </si>
+  <si>
+    <t>뜨겁개핫도그, 이삭토스트, 와플몽, 버거킹, 림벅와플, BKR버거킹, 서브웨이</t>
+  </si>
+  <si>
+    <t>KFC, 롯데리아, 맘스터치한양대점, 밸런스버거, 미스터피자</t>
+  </si>
+  <si>
+    <t>꼬모도화덕피자, 롯데리아, 맥도날드, 파파함바그, 와플대학</t>
+  </si>
+  <si>
+    <t>학교명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,11 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,14 +237,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -184,18 +267,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECF8FD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -222,54 +299,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,80 +652,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="12.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" style="1"/>
-    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.08203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
         <v>25574</v>
       </c>
-      <c r="D2" s="2">
-        <v>12990</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4890</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7</v>
+      <c r="D2" s="3">
+        <v>17880</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -663,113 +747,140 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="I2" s="2">
         <v>4</v>
       </c>
-      <c r="K2" s="1">
-        <v>83</v>
-      </c>
-      <c r="L2" s="1">
-        <v>140</v>
+      <c r="J2" s="8">
+        <v>2102</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1560</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1913</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1493</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1430</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1498</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
         <v>13685</v>
       </c>
-      <c r="D3" s="2">
-        <v>35721</v>
-      </c>
-      <c r="E3" s="2">
-        <v>12682</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8</v>
+      <c r="D3" s="3">
+        <v>48403</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1">
         <v>7</v>
       </c>
-      <c r="K3" s="1">
-        <v>109</v>
-      </c>
-      <c r="L3" s="1">
-        <v>186.5</v>
+      <c r="J3" s="8">
+        <v>16018</v>
+      </c>
+      <c r="K3" s="8">
+        <v>15159</v>
+      </c>
+      <c r="L3" s="8">
+        <v>14569</v>
+      </c>
+      <c r="M3" s="8">
+        <v>18369</v>
+      </c>
+      <c r="N3" s="8">
+        <v>12683</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10652</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5">
         <v>16102</v>
       </c>
-      <c r="D4" s="2">
-        <v>25703</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7259</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3</v>
+      <c r="D4" s="5">
+        <v>32962</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
         <v>9</v>
       </c>
-      <c r="K4" s="1">
-        <v>87</v>
-      </c>
-      <c r="L4" s="1">
-        <v>186.5</v>
+      <c r="J4" s="8">
+        <v>1297</v>
+      </c>
+      <c r="K4" s="8">
+        <v>4440</v>
+      </c>
+      <c r="L4" s="8">
+        <v>3294</v>
+      </c>
+      <c r="M4" s="8">
+        <v>3780</v>
+      </c>
+      <c r="N4" s="8">
+        <v>3092</v>
+      </c>
+      <c r="O4" s="8">
+        <v>2549</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
         <v>13045</v>
       </c>
-      <c r="D5" s="6">
-        <v>21576</v>
-      </c>
-      <c r="E5" s="6">
-        <v>7116</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
+      <c r="D5" s="5">
+        <v>28692</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -777,169 +888,402 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8">
+        <v>9083</v>
+      </c>
+      <c r="K5" s="8">
+        <v>8872</v>
+      </c>
+      <c r="L5" s="8">
+        <v>7954</v>
+      </c>
+      <c r="M5" s="8">
+        <v>10905</v>
+      </c>
+      <c r="N5" s="8">
+        <v>10077</v>
+      </c>
+      <c r="O5" s="8">
+        <v>8417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6">
+        <v>15568</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4508</v>
+      </c>
+      <c r="K6" s="8">
+        <v>4512</v>
+      </c>
+      <c r="L6" s="8">
+        <v>4180</v>
+      </c>
+      <c r="M6" s="8">
+        <v>4060</v>
+      </c>
+      <c r="N6" s="8">
+        <v>4585</v>
+      </c>
+      <c r="O6" s="8">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6">
+        <v>20330</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4">
+        <v>18</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3677</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3798</v>
+      </c>
+      <c r="L7" s="8">
+        <v>4041</v>
+      </c>
+      <c r="M7" s="8">
+        <v>3824</v>
+      </c>
+      <c r="N7" s="8">
+        <v>3840</v>
+      </c>
+      <c r="O7" s="8">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6">
+        <v>21778</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1529</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1535</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1846</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1898</v>
+      </c>
+      <c r="N8" s="8">
+        <v>1727</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6">
+        <v>24274</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
+        <v>5368</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4207</v>
+      </c>
+      <c r="L9" s="8">
+        <v>4886</v>
+      </c>
+      <c r="M9" s="8">
+        <v>5290</v>
+      </c>
+      <c r="N9" s="8">
+        <v>3686</v>
+      </c>
+      <c r="O9" s="8">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="204" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8">
+        <v>16756</v>
+      </c>
+      <c r="D10" s="8">
+        <v>121074</v>
+      </c>
+      <c r="E10" s="9">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2314</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2310</v>
+      </c>
+      <c r="L10" s="8">
+        <v>2249</v>
+      </c>
+      <c r="M10" s="8">
+        <v>2515</v>
+      </c>
+      <c r="N10" s="8">
+        <v>2075</v>
+      </c>
+      <c r="O10" s="8">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8">
+        <v>22476</v>
+      </c>
+      <c r="D11" s="8">
+        <v>155537</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7</v>
+      </c>
+      <c r="J11" s="8">
+        <v>12229</v>
+      </c>
+      <c r="K11" s="8">
+        <v>10903</v>
+      </c>
+      <c r="L11" s="8">
+        <v>7967</v>
+      </c>
+      <c r="M11" s="8">
+        <v>11367</v>
+      </c>
+      <c r="N11" s="8">
+        <v>12405</v>
+      </c>
+      <c r="O11" s="8">
+        <v>9521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="8">
+        <v>22321</v>
+      </c>
+      <c r="D12" s="8">
+        <v>118893</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2304</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2391</v>
+      </c>
+      <c r="L12" s="8">
+        <v>4238</v>
+      </c>
+      <c r="M12" s="8">
+        <v>5852</v>
+      </c>
+      <c r="N12" s="8">
+        <v>4702</v>
+      </c>
+      <c r="O12" s="8">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
+        <v>29406</v>
+      </c>
+      <c r="D13" s="8">
+        <v>108187</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8">
+        <v>4805</v>
+      </c>
+      <c r="K13" s="8">
+        <v>5638</v>
+      </c>
+      <c r="L13" s="8">
+        <v>4765</v>
+      </c>
+      <c r="M13" s="8">
+        <v>3998</v>
+      </c>
+      <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="10">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1">
-        <v>87</v>
-      </c>
-      <c r="L5" s="1">
-        <v>182.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4">
-        <v>16756</v>
-      </c>
-      <c r="D6" s="2">
-        <v>86533</v>
-      </c>
-      <c r="E6" s="2">
-        <v>34541</v>
-      </c>
-      <c r="F6" s="5">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>6</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>9</v>
-      </c>
-      <c r="K6" s="1">
-        <v>105</v>
-      </c>
-      <c r="L6" s="1">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4">
-        <v>22476</v>
-      </c>
-      <c r="D7" s="2">
-        <v>114164</v>
-      </c>
-      <c r="E7" s="2">
-        <v>41373</v>
-      </c>
-      <c r="F7" s="1">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>9</v>
-      </c>
-      <c r="J7" s="1">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1">
-        <v>102</v>
-      </c>
-      <c r="L7" s="1">
-        <v>168.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4">
-        <v>22321</v>
-      </c>
-      <c r="D8" s="2">
-        <v>90687</v>
-      </c>
-      <c r="E8" s="7">
-        <v>28206</v>
-      </c>
-      <c r="F8" s="1">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1">
-        <v>95</v>
-      </c>
-      <c r="L8" s="1">
-        <v>169.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4">
-        <v>29406</v>
-      </c>
-      <c r="D9" s="2">
-        <v>75265</v>
-      </c>
-      <c r="E9" s="2">
-        <v>32922</v>
-      </c>
-      <c r="F9" s="1">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1">
-        <v>77</v>
-      </c>
-      <c r="L9" s="1">
-        <v>161</v>
+      <c r="O13" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
